--- a/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,564 +436,564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to bully</t>
+          <t>baby</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>いじめる</t>
+          <t>赤ちゃん|あかちゃん</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to change clothes</t>
+          <t>mosquito</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>着替える|きがえる</t>
+          <t>蚊|か</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to save money</t>
+          <t>business meeting; conference</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ためる</t>
+          <t>会議|かいぎ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to continue</t>
+          <t>gasoline</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>続ける|つづける</t>
+          <t>ガソリン</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to praise; to say nice things</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ほめる</t>
+          <t>環境|かんきょう</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to make a mistake</t>
+          <t>police; police station</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>間違える|まちがえる</t>
+          <t>警察|けいさつ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to find</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>見つける|みつける</t>
+          <t>工場|こうじょう</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to insult; to make a fool of...</t>
+          <t>things; matters</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ばかにする</t>
+          <t>事|こと</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to be surprised</t>
+          <t>last train</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>びっくりする</t>
+          <t>終電|しゅうでん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to take a nap</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>昼寝をする|ひるねをする</t>
+          <t>準備|じゅんび</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>to contact</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>連絡する|れんらくする</t>
+          <t>スピーチ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>government</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>スピーチ</t>
+          <t>政府|せいふ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>sexual offender; pervert</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>政府|せいふ</t>
+          <t>ちかん</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sexual offender; pervert</t>
+          <t>colleague</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ちかん</t>
+          <t>同僚|どうりょう</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>colleague</t>
+          <t>thief; burglar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>同僚|どうりょう</t>
+          <t>泥棒|どろぼう</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>thief; burglar</t>
+          <t>abbreviation of アルバイト</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>泥棒|どろぼう</t>
+          <t>バイト</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>abbreviation of アルバイト</t>
+          <t>criminal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>バイト</t>
+          <t>犯人|はんにん</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>criminal</t>
+          <t>poster</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>犯人|はんにん</t>
+          <t>ポスター</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>poster</t>
+          <t>old days; past</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ポスター</t>
+          <t>昔|むかし</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>old days; past</t>
+          <t>complaint</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>昔|むかし</t>
+          <t>文句|もんく</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>complaint</t>
+          <t>absence; not at home</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>文句|もんく</t>
+          <t>留守|るす</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>absence; not at home</t>
+          <t>to put; to lay; to place</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>留守|るす</t>
+          <t>置く|おく</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>to notice</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>赤ちゃん|あかちゃん</t>
+          <t>気が付く|きがつく</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mosquito</t>
+          <t>to kick</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>蚊|か</t>
+          <t>ける</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>business meeting; conference</t>
+          <t>to bite</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>会議|かいぎ</t>
+          <t>刺す|さす</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gasoline</t>
+          <t>to touch</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ガソリン</t>
+          <t>触る|さわる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>to be arrested; to be caught</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>環境|かんきょう</t>
+          <t>捕まる|つかまる</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>police; police station</t>
+          <t>to wrap; to cover</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>警察|けいさつ</t>
+          <t>包む|つつむ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>to strike; to hit; to punch</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>工場|こうじょう</t>
+          <t>殴る|なぐる</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>things; matters</t>
+          <t>to steal; to rob</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>事|こと</t>
+          <t>盗む|ぬすむ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>last train</t>
+          <t>to post; to stick</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>終電|しゅうでん</t>
+          <t>貼る|はる</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>to step on</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>準備|じゅんび</t>
+          <t>踏む|ふむ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>to put; to lay; to place</t>
+          <t>to turn down (somebody); to reject; to jilt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>置く|おく</t>
+          <t>ふる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>to notice</t>
+          <t>to complain</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>気が付く|きがつく</t>
+          <t>文句を言う|もんくをいう</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>to kick</t>
+          <t>to bake; to burn; to grill</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ける</t>
+          <t>焼く|やく</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>to bite</t>
+          <t>to give (to pets, plants, younger siblings, etc.)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>刺す|さす</t>
+          <t>やる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>to touch</t>
+          <t>to bully</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>触る|さわる</t>
+          <t>いじめる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>to be arrested; to be caught</t>
+          <t>to change clothes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>捕まる|つかまる</t>
+          <t>着替える|きがえる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>to wrap; to cover</t>
+          <t>to save money</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>包む|つつむ</t>
+          <t>ためる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to strike; to hit; to punch</t>
+          <t>to continue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>殴る|なぐる</t>
+          <t>続ける|つづける</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to steal; to rob</t>
+          <t>to praise; to say nice things</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>盗む|ぬすむ</t>
+          <t>ほめる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to post; to stick</t>
+          <t>to make a mistake</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>貼る|はる</t>
+          <t>間違える|まちがえる</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to step on</t>
+          <t>to find</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>踏む|ふむ</t>
+          <t>見つける|みつける</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>to turn down (somebody); to reject; to jilt</t>
+          <t>to insult; to make a fool of...</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ふる</t>
+          <t>ばかにする</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to complain</t>
+          <t>to be surprised</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>文句を言う|もんくをいう</t>
+          <t>びっくりする</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to bake; to burn; to grill</t>
+          <t>to take a nap</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>焼く|やく</t>
+          <t>昼寝をする|ひるねをする</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to give (to pets, plants, younger siblings, etc.)</t>
+          <t>to contact</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>やる</t>
+          <t>連絡する|れんらくする</t>
         </is>
       </c>
     </row>
@@ -1040,748 +1108,748 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>at first</t>
+          <t>to believe</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>初めは|はじめは</t>
+          <t>信じる|しんじる</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>first time</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>初めて|はじめて</t>
+          <t>自信|じしん</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>traffic signal</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>最初|さいしょ</t>
+          <t>信号|しんごう</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>first snow</t>
+          <t>superstition</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>初雪|はつゆき</t>
+          <t>迷信|めいしん</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>first love</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>初恋|はつこい</t>
+          <t>経験|けいけん</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>若い|わかい</t>
+          <t>経済|けいざい</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>young people</t>
+          <t>over sensitive</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>若者|わかもの</t>
+          <t>神経質|しんけいしつ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>youthful</t>
+          <t>management studies</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>若々しい|わかわかしい</t>
+          <t>経営学|けいえいがく</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>to send</t>
+          <t>via Paris</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>送る|おくる</t>
+          <t>パリ経由|パリけいゆ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sending money</t>
+          <t>typhoon</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>送金|そうきん</t>
+          <t>台風|たいふう</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>postage</t>
+          <t>two vehicles/machines/etc.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>送料|そうりょう</t>
+          <t>二台|にだい</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>broadcast</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>放送|ほうそう</t>
+          <t>舞台|ぶたい</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>out-of-service train</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>回送電車|かいそうでんしゃ</t>
+          <t>台所|だいどころ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>worried about</t>
+          <t>typhoon</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>心配な|しんぱいな</t>
+          <t>台風|たいふう</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>to distribute</t>
+          <t>bath</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>配る|くばる</t>
+          <t>お風呂|おふろ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>Japanese style</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>配達|はいたつ</t>
+          <t>和風|わふう</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>home delivery service</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>宅配便|たくはいびん</t>
+          <t>風|かぜ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>younger brother</t>
+          <t>to catch a cold</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>弟|おとうと</t>
+          <t>風邪をひく|かぜをひく</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>兄弟|きょうだい</t>
+          <t>犬|いぬ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>apprentice</t>
+          <t>puppy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>弟子|でし</t>
+          <t>子犬|こいぬ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>younger sister</t>
+          <t>watch dog</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>妹|いもうと</t>
+          <t>番犬|ばんけん</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>seeing-eye dog</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>姉妹|しまい</t>
+          <t>盲導犬|もうどうけん</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sister school</t>
+          <t>heavy; serious (illness)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>姉妹校|しまいこう</t>
+          <t>重い|おもい</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>to believe</t>
+          <t>to pile up</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>信じる|しんじる</t>
+          <t>重ねる|かさねる</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>body weight</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>自信|じしん</t>
+          <t>体重|たいじゅう</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>traffic signal</t>
+          <t>valuables</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>信号|しんごう</t>
+          <t>貴重品|きちょうひん</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>superstition</t>
+          <t>at first</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>迷信|めいしん</t>
+          <t>初めは|はじめは</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>first time</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>経験|けいけん</t>
+          <t>初めて|はじめて</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>economy</t>
+          <t>first</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>経済|けいざい</t>
+          <t>最初|さいしょ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>over sensitive</t>
+          <t>first snow</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>神経質|しんけいしつ</t>
+          <t>初雪|はつゆき</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>management studies</t>
+          <t>first love</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>経営学|けいえいがく</t>
+          <t>初恋|はつこい</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>via Paris</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>パリ経由|パリけいゆ</t>
+          <t>若い|わかい</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>typhoon</t>
+          <t>young people</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>台風|たいふう</t>
+          <t>若者|わかもの</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>two vehicles/machines/etc.</t>
+          <t>youthful</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>二台|にだい</t>
+          <t>若々しい|わかわかしい</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>to send</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>舞台|ぶたい</t>
+          <t>送る|おくる</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>sending money</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>台所|だいどころ</t>
+          <t>送金|そうきん</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>happy (しあわ)</t>
+          <t>postage</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>幸せな|しあわせな</t>
+          <t>送料|そうりょう</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>happy (こう)</t>
+          <t>broadcast</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>幸福な|こうふくな</t>
+          <t>放送|ほうそう</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>good fortune</t>
+          <t>out-of-service train</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>幸運|こううん</t>
+          <t>回送電車|かいそうでんしゃ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>misfortune</t>
+          <t>happy (しあわ)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>不幸|ふこう</t>
+          <t>幸せな|しあわせな</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fortunately</t>
+          <t>happy (こう)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>幸い|さいわい</t>
+          <t>幸福な|こうふくな</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>a watch</t>
+          <t>good fortune</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>時計|とけい</t>
+          <t>幸運|こううん</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>misfortune</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>計画|けいかく</t>
+          <t>不幸|ふこう</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>fortunately</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>合計|ごうけい</t>
+          <t>幸い|さいわい</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>to measure</t>
+          <t>a watch</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>計る|はかる</t>
+          <t>時計|とけい</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>to be late (る)</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>遅れる|おくれる</t>
+          <t>計画|けいかく</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>to miss (transportation)</t>
+          <t>sum</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>乗り遅れる|のりおくれる</t>
+          <t>合計|ごうけい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>to measure</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>遅い|おそい</t>
+          <t>計る|はかる</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>to be late (する)</t>
+          <t>to be late (る)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>遅刻する|ちこくする</t>
+          <t>遅れる|おくれる</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>typhoon</t>
+          <t>to miss (transportation)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>台風|たいふう</t>
+          <t>乗り遅れる|のりおくれる</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bath</t>
+          <t>late</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>お風呂|おふろ</t>
+          <t>遅い|おそい</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Japanese style</t>
+          <t>to be late (する)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>和風|わふう</t>
+          <t>遅刻する|ちこくする</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>worried about</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>風|かぜ</t>
+          <t>心配な|しんぱいな</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>to catch a cold</t>
+          <t>to distribute</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>風邪をひく|かぜをひく</t>
+          <t>配る|くばる</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>犬|いぬ</t>
+          <t>配達|はいたつ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>home delivery service</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>子犬|こいぬ</t>
+          <t>宅配便|たくはいびん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>watch dog</t>
+          <t>younger brother</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>番犬|ばんけん</t>
+          <t>弟|おとうと</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>seeing-eye dog</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>盲導犬|もうどうけん</t>
+          <t>兄弟|きょうだい</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>heavy; serious (illness)</t>
+          <t>apprentice</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>重い|おもい</t>
+          <t>弟子|でし</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>to pile up</t>
+          <t>younger sister</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>重ねる|かさねる</t>
+          <t>妹|いもうと</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>body weight</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>体重|たいじゅう</t>
+          <t>姉妹|しまい</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>valuables</t>
+          <t>sister school</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>貴重品|きちょうひん</t>
+          <t>姉妹校|しまいこう</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1850,6 +1850,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ちかん</t>
+          <t>痴漢|ちかん</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ふる</t>
+          <t>ふる|振る</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ためる</t>
+          <t>ためる|貯める</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ほめる</t>
+          <t>ほめる|褒める</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ばかにする</t>
+          <t>ばかにする|馬鹿にする</t>
         </is>
       </c>
     </row>
